--- a/Tables/Table_02-Descriptive.xlsx
+++ b/Tables/Table_02-Descriptive.xlsx
@@ -723,7 +723,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Talk</t>
+            <t>Direct instruction</t>
           </r>
         </is>
       </c>
